--- a/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
+++ b/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
@@ -417,24 +417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ユーザヒアリング
-・資金調達活動
-・コーポレートサイト</t>
-    <rPh sb="11" eb="15">
-      <t>シキn</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カツド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・User hearing.
-・Make a document of funding from VC.
-・Make a corporate site.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・User hearing.
 ・Make a document of funding from VC.
 ・Registration procedure of a company.
@@ -469,19 +451,6 @@
   </si>
   <si>
     <t>・Display selected okr map.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・テストデータ作成
-・進捗登録促進メールバッチ</t>
-    <rPh sb="7" eb="9">
-      <t>サクセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Create a complete test data.
-・Achievement encounragement mail batch.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -697,6 +666,127 @@
 ・Mail sending batch.
 ・Achievement notification mail batch.
 ・Feedback target employees extraction mail batch.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・テストデータ作成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・進捗登録促進メールバッチ</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>サクセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Create a complete test data.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+・Achievement encounragement mail batch.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ユーザヒアリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・資金調達活動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・コーポレートサイト</t>
+    </r>
+    <rPh sb="11" eb="15">
+      <t>シキn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カツド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・User hearing.
+・Make a document of funding from VC.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・Make a corporate site.</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -1756,10 +1846,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
@@ -1836,10 +1926,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
@@ -1862,10 +1952,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
@@ -2068,19 +2158,19 @@
         <v>33</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>15</v>
@@ -2100,19 +2190,19 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>15</v>

--- a/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
+++ b/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
@@ -795,7 +795,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -848,6 +848,14 @@
       <color rgb="FFFF0000"/>
       <name val="Yu Gothic (本文)"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -921,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -982,6 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1006,8 +1015,8 @@
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>968375</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>746125</xdr:rowOff>
     </xdr:to>
@@ -1018,8 +1027,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952624" y="79374"/>
-          <a:ext cx="10842626" cy="666751"/>
+          <a:off x="1691568" y="79374"/>
+          <a:ext cx="10683876" cy="666751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1738,14 +1747,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="24.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7109375" style="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="24.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="64" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1779,7 +1788,7 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1788,7 +1797,7 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1797,7 +1806,7 @@
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1841,7 +1850,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="140" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="160" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2040,10 +2049,10 @@
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="20" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -2053,7 +2062,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="140" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +2122,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -2153,7 +2162,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="180" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="220" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>

--- a/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
+++ b/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
@@ -987,10 +987,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1762,21 +1762,21 @@
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1788,7 +1788,7 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1797,7 +1797,7 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1806,7 +1806,7 @@
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1980,10 +1980,10 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="8" t="s">

--- a/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
+++ b/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -589,10 +589,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">・EC2とRDSの設定、およびデプロイ
-</t>
-    </r>
-    <r>
       <rPr>
         <strike/>
         <sz val="12"/>
@@ -601,7 +597,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>・目標進捗率集計バッチ</t>
+      <t>・ユーザヒアリング</t>
     </r>
     <r>
       <rPr>
@@ -624,35 +620,29 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>・メール送信バッチ
-・進捗通知メールバッチ
-・FB対象者抽出メールバッチ</t>
-    </r>
-    <rPh sb="9" eb="11">
-      <t>セッテ</t>
-    </rPh>
-    <rPh sb="21" eb="26">
-      <t>モクヒョ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ソウシn</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シンチョk</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ツウt</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・Setting EC2 and RDS, and deploy an application.
-</t>
-    </r>
+      <t>・資金調達活動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・コーポレートサイト</t>
+    </r>
+    <rPh sb="11" eb="15">
+      <t>シキn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カツド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <strike/>
@@ -662,16 +652,26 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>・Achievement rate collection batch.
-・Mail sending batch.
-・Achievement notification mail batch.
-・Feedback target employees extraction mail batch.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・テストデータ作成
+      <t>・User hearing.
+・Make a document of funding from VC.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・Make a corporate site.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・EC2とRDSの設定、およびデプロイ
 </t>
     </r>
     <r>
@@ -683,42 +683,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>・進捗登録促進メールバッチ</t>
-    </r>
-    <rPh sb="7" eb="9">
-      <t>サクセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・Create a complete test data.</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-・Achievement encounragement mail batch.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・ユーザヒアリング</t>
+      <t>・目標進捗率集計バッチ</t>
     </r>
     <r>
       <rPr>
@@ -741,29 +706,32 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>・資金調達活動</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-・コーポレートサイト</t>
-    </r>
-    <rPh sb="11" eb="15">
-      <t>シキn</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カツド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
+      <t xml:space="preserve">・メール送信バッチ
+・メンバー進捗状況レポートバッチ
+・FB対象者抽出メールバッチ </t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>セッテ</t>
+    </rPh>
+    <rPh sb="21" eb="26">
+      <t>モクヒョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウシn</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>シンチョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・Setting EC2 and RDS, and deploy an application.
+</t>
+    </r>
     <r>
       <rPr>
         <strike/>
@@ -773,21 +741,96 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>・User hearing.
-・Make a document of funding from VC.</t>
+      <t>・Achievement rate collection batch.
+・Email sending batch.
+・Member achievement notification report batch.
+・Feedback target employees extraction email batch.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Create a complete test data.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+・Achievement encounragement email batch.
+・Member achievement notification report batch.
+・Post notice email.
+・CSV Import api.
+</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-・Make a corporate site.</t>
-    </r>
+      <t>・CSV registration batch.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・テストデータ作成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">・進捗登録促進メールバッチ
+・グループ進捗状況レポートバッチ
+・タイムライン投稿通知メール
+・CSV登録API
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・CSV登録バッチ</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>サクセ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シンチョk</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウky</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>トウコ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ツウt</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>トウロk</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>トウロk</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1739,7 +1782,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -1747,14 +1790,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="3" width="24.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="24.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.83203125" style="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="24.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="64" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1850,7 +1893,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="160" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="140" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2105,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="140" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
@@ -2122,7 +2165,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="40" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -2162,24 +2205,24 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="220" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="202" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>15</v>
@@ -2199,10 +2242,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>15</v>

--- a/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
+++ b/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>Japanese</t>
     <phoneticPr fontId="1"/>
@@ -455,22 +455,364 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">・ヘッダーの右上のポップアップメニュー
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・コメント投稿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・リプライ投稿
+・次の投稿取得（スクロール）</t>
+    </r>
+    <rPh sb="17" eb="18">
+      <t>ツg</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウコ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>sh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・Post comment.
+・Post reply.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+・Next posts loading(scrolling).</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ユーザヒアリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・資金調達活動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・コーポレートサイト</t>
+    </r>
+    <rPh sb="11" eb="15">
+      <t>シキn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カツド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・User hearing.
+・Make a document of funding from VC.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・Make a corporate site.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・EC2とRDSの設定、およびデプロイ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・目標進捗率集計バッチ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">・メール送信バッチ
+・メンバー進捗状況レポートバッチ
+・FB対象者抽出メールバッチ </t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>セッテ</t>
+    </rPh>
+    <rPh sb="21" eb="26">
+      <t>モクヒョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウシn</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>シンチョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・Setting EC2 and RDS, and deploy an application.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・Achievement rate collection batch.
+・Email sending batch.
+・Member achievement notification report batch.
+・Feedback target employees extraction email batch.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・テストデータ作成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・進捗登録促進メールバッチ
+・グループ進捗状況レポートバッチ
+・タイムライン投稿通知メール
+・CSV登録API
+・CSV登録バッチ</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>サクセ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シンチョk</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウky</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>トウコ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ツウt</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>トウロk</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>トウロk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Create a complete test data.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+・Achievement encounragement email batch.
+・Member achievement notification report batch.
+・Post notice email.
+・CSV Import api.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・CSV registration batch.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ヘッダーの右上のポップアップメニュー
 ・ルーティング（アカウント設定画面含む）
 ・S3の設定
-・S3から画像取得し表示
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・Route53の設定</t>
-    </r>
+・S3から画像取得し表示</t>
     <rPh sb="6" eb="8">
       <t>ミギウエn</t>
     </rPh>
@@ -480,9 +822,10 @@
     <rPh sb="37" eb="38">
       <t>フクm</t>
     </rPh>
-    <rPh sb="70" eb="72">
-      <t>セッテ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Route53の設定</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -508,329 +851,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">
-・Setting of Route53.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・コメント投稿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・リプライ投稿
-・次の投稿取得（スクロール）</t>
-    </r>
-    <rPh sb="17" eb="18">
-      <t>ツg</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウコ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>sh</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・Post comment.
-・Post reply.</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-・Next posts loading(scrolling).</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・ユーザヒアリング</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・資金調達活動</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-・コーポレートサイト</t>
-    </r>
-    <rPh sb="11" eb="15">
-      <t>シキn</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カツド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・User hearing.
-・Make a document of funding from VC.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-・Make a corporate site.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・EC2とRDSの設定、およびデプロイ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・目標進捗率集計バッチ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">・メール送信バッチ
-・メンバー進捗状況レポートバッチ
-・FB対象者抽出メールバッチ </t>
-    </r>
-    <rPh sb="9" eb="11">
-      <t>セッテ</t>
-    </rPh>
-    <rPh sb="21" eb="26">
-      <t>モクヒョ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ソウシn</t>
-    </rPh>
-    <rPh sb="47" eb="51">
-      <t>シンチョk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・Setting EC2 and RDS, and deploy an application.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・Achievement rate collection batch.
-・Email sending batch.
-・Member achievement notification report batch.
-・Feedback target employees extraction email batch.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・Create a complete test data.</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-・Achievement encounragement email batch.
-・Member achievement notification report batch.
-・Post notice email.
-・CSV Import api.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・CSV registration batch.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・テストデータ作成
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">・進捗登録促進メールバッチ
-・グループ進捗状況レポートバッチ
-・タイムライン投稿通知メール
-・CSV登録API
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・CSV登録バッチ</t>
-    </r>
-    <rPh sb="7" eb="9">
-      <t>サクセ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シンチョk</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジョウky</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>トウコ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ツウt</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>トウロk</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>トウロk</t>
-    </rPh>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Setting of Route53.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1264,136 +1290,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64910</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>361245</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>93133</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1363134</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13174132" y="9815689"/>
-          <a:ext cx="2201334" cy="1001889"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -117628"/>
-            <a:gd name="adj2" fmla="val 14612"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>HTML</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t> and CSS are already created except modals.</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>64910</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>121357</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>93133</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>361246</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形吹き出し 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13174132" y="8305801"/>
-          <a:ext cx="2201334" cy="1001889"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -116987"/>
-            <a:gd name="adj2" fmla="val 45598"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>HTML</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t> and CSS are already created.</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>101601</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>143933</xdr:rowOff>
@@ -1505,7 +1401,19 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t> and CSS are not created yet.</a:t>
+            <a:t> and CSS are </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>not</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> created yet.</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
         </a:p>
@@ -1782,7 +1690,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -1893,22 +1801,28 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="140" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16"/>
+      <c r="E6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="5" t="s">
         <v>61</v>
       </c>
@@ -1986,10 +1900,10 @@
       <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="17" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -2004,10 +1918,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
@@ -2032,10 +1946,10 @@
       <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -2052,10 +1966,10 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -2069,10 +1983,10 @@
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="17" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2112,10 +2026,10 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -2172,10 +2086,10 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -2192,10 +2106,10 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -2210,19 +2124,19 @@
         <v>33</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>15</v>
@@ -2242,10 +2156,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>15</v>

--- a/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
+++ b/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="27820" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="27580" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Japanese</t>
     <phoneticPr fontId="1"/>
@@ -143,59 +143,6 @@
   </si>
   <si>
     <t>Additional user initial setting</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・初期設定画面の作成
-・初期設定登録</t>
-    <rPh sb="1" eb="5">
-      <t>ショk</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセ</t>
-    </rPh>
-    <rPh sb="12" eb="18">
-      <t>ショk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・追加ユーザ初期設定画面の作成
-・追加ユーザ初期設定登録</t>
-    <rPh sb="1" eb="3">
-      <t>ツイカユー</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ショk</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクセ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツイk</t>
-    </rPh>
-    <rPh sb="22" eb="26">
-      <t>ショk</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Make initial setting display.
-・Register initial setting.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Make additional user initial setting display.
-・Register additional user initial setting.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -374,14 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・テスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Testing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主要機能を完成させる。</t>
     <rPh sb="0" eb="4">
       <t>シュヨ</t>
@@ -404,42 +343,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・バグ修正</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・Remove bugs which are found in a test.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Adrian
 Tazawa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・User hearing.
-・Make a document of funding from VC.
-・Registration procedure of a company.
-・Make a corporate site.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ユーザヒアリング
-・資金調達活動
-・会社設立
-・コーポレートサイト</t>
-    <rPh sb="11" eb="15">
-      <t>シキn</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カツド</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カイsh</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セツリt</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -524,201 +433,6 @@
       </rPr>
       <t xml:space="preserve">
 ・Next posts loading(scrolling).</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・ユーザヒアリング</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・資金調達活動</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-・コーポレートサイト</t>
-    </r>
-    <rPh sb="11" eb="15">
-      <t>シキn</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カツド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・User hearing.
-・Make a document of funding from VC.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-・Make a corporate site.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・EC2とRDSの設定、およびデプロイ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・目標進捗率集計バッチ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">・メール送信バッチ
-・メンバー進捗状況レポートバッチ
-・FB対象者抽出メールバッチ </t>
-    </r>
-    <rPh sb="9" eb="11">
-      <t>セッテ</t>
-    </rPh>
-    <rPh sb="21" eb="26">
-      <t>モクヒョ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ソウシn</t>
-    </rPh>
-    <rPh sb="47" eb="51">
-      <t>シンチョk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・Setting EC2 and RDS, and deploy an application.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・Achievement rate collection batch.
-・Email sending batch.
-・Member achievement notification report batch.
-・Feedback target employees extraction email batch.</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -763,49 +477,6 @@
     <rPh sb="70" eb="72">
       <t>トウロk</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>・Create a complete test data.</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-・Achievement encounragement email batch.
-・Member achievement notification report batch.
-・Post notice email.
-・CSV Import api.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・CSV registration batch.</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -859,12 +530,286 @@
     <t>・Setting of Route53.</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・Setting EC2 and RDS, and deploy an application.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・Achievement rate collection batch.
+・Email sending batch.
+・Member achievement notification report batch.
+・Feedback target employees extraction email batch.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・EC2とRDSの設定、およびデプロイ</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・目標進捗率集計バッチ</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">・メール送信バッチ
+・メンバー進捗状況レポートバッチ
+・FB対象者抽出メールバッチ </t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>セッテ</t>
+    </rPh>
+    <rPh sb="21" eb="26">
+      <t>モクヒョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウシn</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>シンチョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・Create a complete test data.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+・Achievement encounragement email batch.
+・Member achievement notification report batch.
+・Post notice email.
+・CSV Import api.
+・CSV registration batch.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・会社新規アカウント作成画面
+・新規ユーザ登録画面
+・初期設定登録</t>
+    <rPh sb="1" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シn</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンk</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>トウロk</t>
+    </rPh>
+    <rPh sb="27" eb="33">
+      <t>ショk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・追加ユーザ登録画面
+・追加ユーザ初期設定登録</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカユー</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロk</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイk</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ショk</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・An additionaluser registration display (File No.03).
+・Register additional user initial setting (File No.05).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・A new company account registration display (File No.01).
+・A initial user registration display (File No.02).
+・Register initial setting (File No.04).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コーポレートサイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Make a corporate site.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・バグ修正
+・Supporting for FireFox and IE11.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・バッチ専用サーバの設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・テスト</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>センヨ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・Setting another EC2 for a batch server.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・Testing</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -911,12 +856,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Yu Gothic (本文)"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -998,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1047,16 +986,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,152 +1072,6 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
             <a:t>) !!!!!!</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>70556</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>663222</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>98779</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>649111</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形吹き出し 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13179778" y="7069666"/>
-          <a:ext cx="2201334" cy="1001889"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -118269"/>
-            <a:gd name="adj2" fmla="val 31514"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>HTML</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t> and CSS are already created.</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1013176</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>265289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1041399</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>759178</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形吹き出し 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5034843" y="9211733"/>
-          <a:ext cx="2201334" cy="1001889"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -32372"/>
-            <a:gd name="adj2" fmla="val -82571"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>HTML</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
-            <a:t> and CSS are already created.</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1711,23 +1501,23 @@
     <row r="1" spans="1:10" ht="64" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1739,7 +1529,7 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1748,7 +1538,7 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1757,7 +1547,7 @@
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1766,24 +1556,24 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J4" s="5"/>
     </row>
@@ -1805,32 +1595,32 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>76</v>
+      <c r="B6" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>79</v>
+      <c r="E6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>63</v>
+      <c r="H6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="40" x14ac:dyDescent="0.3">
@@ -1841,10 +1631,10 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>14</v>
@@ -1875,10 +1665,10 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>14</v>
@@ -1891,20 +1681,20 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>67</v>
+      <c r="B10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>50</v>
+      <c r="E10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>15</v>
@@ -1918,10 +1708,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
@@ -1937,20 +1727,20 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>44</v>
+      <c r="B12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>14</v>
@@ -1966,11 +1756,11 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>59</v>
+      <c r="E13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>14</v>
@@ -1983,17 +1773,17 @@
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>60</v>
+      <c r="B14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="16"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2006,11 +1796,11 @@
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>37</v>
+      <c r="E15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>14</v>
@@ -2027,10 +1817,10 @@
       <c r="C16" s="5"/>
       <c r="D16" s="16"/>
       <c r="E16" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>14</v>
@@ -2079,7 +1869,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="140" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -2087,10 +1877,10 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="17" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>14</v>
@@ -2099,7 +1889,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="80" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="100" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>26</v>
       </c>
@@ -2107,10 +1897,10 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="17" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>14</v>
@@ -2121,54 +1911,54 @@
     </row>
     <row r="21" spans="1:10" ht="202" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>75</v>
+      <c r="E21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="120" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>15</v>

--- a/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
+++ b/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
@@ -343,10 +343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・Remove bugs which are found in a test.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Adrian
 Tazawa</t>
     <phoneticPr fontId="1"/>
@@ -728,80 +724,88 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>・コーポレートサイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Make a corporate site.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・バッチ専用サーバの設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・テスト</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>センヨ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic (本文)"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・Setting another EC2 for a batch server.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・Testing</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>・A new company account registration display (File No.01).
 ・A initial user registration display (File No.02).
 ・Register initial setting (File No.04).</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・コーポレートサイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Make a corporate site.</t>
+    <t>・Remove bugs which are found in a test.
+・Supporting for FireFox and IE11.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・バグ修正
-・Supporting for FireFox and IE11.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・バッチ専用サーバの設定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-・テスト</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>センヨ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic (本文)"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・Setting another EC2 for a batch server.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-・Testing</t>
-    </r>
+・FireFoxとIE11への対応</t>
+    <rPh sb="21" eb="23">
+      <t>タイオ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1596,31 +1600,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="40" x14ac:dyDescent="0.3">
@@ -1682,10 +1686,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>58</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
@@ -1708,10 +1712,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
@@ -1877,10 +1881,10 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>14</v>
@@ -1897,10 +1901,10 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>14</v>
@@ -1914,28 +1918,28 @@
         <v>29</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>15</v>
@@ -1946,19 +1950,19 @@
         <v>34</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>15</v>

--- a/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
+++ b/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="27580" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="27520" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -813,7 +813,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -864,6 +864,15 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
@@ -941,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -999,6 +1008,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1634,10 +1646,10 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="17" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -1668,10 +1680,10 @@
       <c r="B9" s="13"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -1685,10 +1697,10 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="9" t="s">

--- a/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
+++ b/skrum_docs/01_WBS/GoFor0817_20170804.xlsx
@@ -1006,11 +1006,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1519,21 +1519,21 @@
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1646,10 +1646,10 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="21" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -1680,10 +1680,10 @@
       <c r="B9" s="13"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="21" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -1697,10 +1697,10 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -1892,10 +1892,10 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="21" t="s">
         <v>75</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -1912,10 +1912,10 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="21" t="s">
         <v>70</v>
       </c>
       <c r="G20" s="8" t="s">
